--- a/reports/resnet18_23_no_MMTM/prediction/7/prediction_train_7.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/7/prediction_train_7.xlsx
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -1505,7 +1505,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
         <v>1</v>
@@ -1947,7 +1947,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
         <v>0</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C147" t="n">
         <v>0</v>
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C165" t="n">
         <v>0</v>
